--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Erbb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H2">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I2">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J2">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N2">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q2">
-        <v>4.155544341788168</v>
+        <v>2.240805473519556</v>
       </c>
       <c r="R2">
-        <v>4.155544341788168</v>
+        <v>20.167249261676</v>
       </c>
       <c r="S2">
-        <v>0.006095951811435543</v>
+        <v>0.003167771257239938</v>
       </c>
       <c r="T2">
-        <v>0.006095951811435543</v>
+        <v>0.003167771257239939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H3">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I3">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J3">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N3">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q3">
-        <v>3.953581730672032</v>
+        <v>2.173885580699556</v>
       </c>
       <c r="R3">
-        <v>3.953581730672032</v>
+        <v>19.564970226296</v>
       </c>
       <c r="S3">
-        <v>0.005799683923569404</v>
+        <v>0.003073168260452442</v>
       </c>
       <c r="T3">
-        <v>0.005799683923569404</v>
+        <v>0.003073168260452443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H4">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I4">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J4">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N4">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q4">
-        <v>1.474040394784122</v>
+        <v>0.8168211473424444</v>
       </c>
       <c r="R4">
-        <v>1.474040394784122</v>
+        <v>7.351390326081999</v>
       </c>
       <c r="S4">
-        <v>0.00216233505785353</v>
+        <v>0.001154719846695592</v>
       </c>
       <c r="T4">
-        <v>0.00216233505785353</v>
+        <v>0.001154719846695592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H5">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I5">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J5">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N5">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q5">
-        <v>100.6142096405375</v>
+        <v>4.169048661234668</v>
       </c>
       <c r="R5">
-        <v>100.6142096405375</v>
+        <v>37.52143795111201</v>
       </c>
       <c r="S5">
-        <v>0.1475954346935122</v>
+        <v>0.005893680944268083</v>
       </c>
       <c r="T5">
-        <v>0.1475954346935122</v>
+        <v>0.005893680944268085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H6">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I6">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J6">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N6">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q6">
-        <v>95.72428263625834</v>
+        <v>4.044543302394668</v>
       </c>
       <c r="R6">
-        <v>95.72428263625834</v>
+        <v>36.40088972155201</v>
       </c>
       <c r="S6">
-        <v>0.1404221844697651</v>
+        <v>0.005717670798913423</v>
       </c>
       <c r="T6">
-        <v>0.1404221844697651</v>
+        <v>0.005717670798913424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H7">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I7">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J7">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N7">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q7">
-        <v>35.68952635351049</v>
+        <v>1.519706708609334</v>
       </c>
       <c r="R7">
-        <v>35.68952635351049</v>
+        <v>13.677360377484</v>
       </c>
       <c r="S7">
-        <v>0.05235454489948724</v>
+        <v>0.002148371774282594</v>
       </c>
       <c r="T7">
-        <v>0.05235454489948724</v>
+        <v>0.002148371774282595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H8">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I8">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J8">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N8">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q8">
-        <v>182.9854185718294</v>
+        <v>104.3697656699129</v>
       </c>
       <c r="R8">
-        <v>182.9854185718294</v>
+        <v>939.3278910292161</v>
       </c>
       <c r="S8">
-        <v>0.2684294046852205</v>
+        <v>0.1475449554729644</v>
       </c>
       <c r="T8">
-        <v>0.2684294046852205</v>
+        <v>0.1475449554729644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H9">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I9">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J9">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N9">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q9">
-        <v>174.0921882531647</v>
+        <v>101.2528447167929</v>
       </c>
       <c r="R9">
-        <v>174.0921882531647</v>
+        <v>911.2756024511361</v>
       </c>
       <c r="S9">
-        <v>0.2553835317473687</v>
+        <v>0.1431386414385408</v>
       </c>
       <c r="T9">
-        <v>0.2553835317473687</v>
+        <v>0.1431386414385408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H10">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I10">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J10">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N10">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q10">
-        <v>64.90795824724391</v>
+        <v>38.04499442267911</v>
       </c>
       <c r="R10">
-        <v>64.90795824724391</v>
+        <v>342.404949804112</v>
       </c>
       <c r="S10">
-        <v>0.09521635509335133</v>
+        <v>0.05378326732874471</v>
       </c>
       <c r="T10">
-        <v>0.09521635509335133</v>
+        <v>0.05378326732874471</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H11">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I11">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J11">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N11">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q11">
-        <v>7.845408996292236</v>
+        <v>183.7184727130258</v>
       </c>
       <c r="R11">
-        <v>7.845408996292236</v>
+        <v>1653.466254417232</v>
       </c>
       <c r="S11">
-        <v>0.01150877749070552</v>
+        <v>0.2597182594213545</v>
       </c>
       <c r="T11">
-        <v>0.01150877749070552</v>
+        <v>0.2597182594213545</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H12">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I12">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J12">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N12">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q12">
-        <v>7.464116160542253</v>
+        <v>178.2318650407858</v>
       </c>
       <c r="R12">
-        <v>7.464116160542253</v>
+        <v>1604.086785367072</v>
       </c>
       <c r="S12">
-        <v>0.01094944216382574</v>
+        <v>0.2519619779014886</v>
       </c>
       <c r="T12">
-        <v>0.01094944216382574</v>
+        <v>0.2519619779014887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,247 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>49.52258933333334</v>
+      </c>
+      <c r="H13">
+        <v>148.567768</v>
+      </c>
+      <c r="I13">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="J13">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.352297666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.056893</v>
+      </c>
+      <c r="O13">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="P13">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="Q13">
+        <v>66.96928200275822</v>
+      </c>
+      <c r="R13">
+        <v>602.7235380248239</v>
+      </c>
+      <c r="S13">
+        <v>0.09467281705320325</v>
+      </c>
+      <c r="T13">
+        <v>0.09467281705320325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.11668558801476</v>
-      </c>
-      <c r="H13">
-        <v>2.11668558801476</v>
-      </c>
-      <c r="I13">
-        <v>0.02654057361843632</v>
-      </c>
-      <c r="J13">
-        <v>0.02654057361843632</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.31474249576101</v>
-      </c>
-      <c r="N13">
-        <v>1.31474249576101</v>
-      </c>
-      <c r="O13">
-        <v>0.1538155890145972</v>
-      </c>
-      <c r="P13">
-        <v>0.1538155890145972</v>
-      </c>
-      <c r="Q13">
-        <v>2.782896492727887</v>
-      </c>
-      <c r="R13">
-        <v>2.782896492727887</v>
-      </c>
-      <c r="S13">
-        <v>0.004082353963905061</v>
-      </c>
-      <c r="T13">
-        <v>0.004082353963905061</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.866572</v>
+      </c>
+      <c r="I14">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J14">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.709791333333333</v>
+      </c>
+      <c r="N14">
+        <v>11.129374</v>
+      </c>
+      <c r="O14">
+        <v>0.4283284425582907</v>
+      </c>
+      <c r="P14">
+        <v>0.4283284425582907</v>
+      </c>
+      <c r="Q14">
+        <v>8.491183098436444</v>
+      </c>
+      <c r="R14">
+        <v>76.42064788592801</v>
+      </c>
+      <c r="S14">
+        <v>0.01200377546246376</v>
+      </c>
+      <c r="T14">
+        <v>0.01200377546246376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.866572</v>
+      </c>
+      <c r="I15">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J15">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.599001333333334</v>
+      </c>
+      <c r="N15">
+        <v>10.797004</v>
+      </c>
+      <c r="O15">
+        <v>0.4155367505499981</v>
+      </c>
+      <c r="P15">
+        <v>0.4155367505499982</v>
+      </c>
+      <c r="Q15">
+        <v>8.237600594476444</v>
+      </c>
+      <c r="R15">
+        <v>74.13840535028801</v>
+      </c>
+      <c r="S15">
+        <v>0.01164529215060281</v>
+      </c>
+      <c r="T15">
+        <v>0.01164529215060282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.866572</v>
+      </c>
+      <c r="I16">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J16">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.352297666666667</v>
+      </c>
+      <c r="N16">
+        <v>4.056893</v>
+      </c>
+      <c r="O16">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="P16">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="Q16">
+        <v>3.095216431199555</v>
+      </c>
+      <c r="R16">
+        <v>27.856947880796</v>
+      </c>
+      <c r="S16">
+        <v>0.004375630888785027</v>
+      </c>
+      <c r="T16">
+        <v>0.004375630888785029</v>
       </c>
     </row>
   </sheetData>
